--- a/Data/Transitions/19261941Translation.xlsx
+++ b/Data/Transitions/19261941Translation.xlsx
@@ -31,13 +31,13 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 1.0, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.825592149125948e-05}</t>
+    <t>{14.0: 1.0, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.8643126920415906e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -100,19 +100,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.022467765092163004, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013, 90.0: 0.005317945236478841}</t>
+    <t>{46.0: 1.0, 246.0: 0.02244441000314986, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737, 90.0: 0.005340909090909091}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -145,25 +145,25 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.052093120367470505}</t>
+    <t>{75.0: 1.0, 917.0: 0.05246556618652087}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{80.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9948036115071597, 172.0: 0.0017460035917788175}</t>
+    <t>{81.0: 0.9948093683812907, 172.0: 0.0017369111696087657}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,10 +187,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9954755017423704, 178.0: 0.008754152442495772}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.9977833604255948}</t>
+    <t>{85.0: 0.9954402787576053, 178.0: 0.008800518701521449}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.9977641973468475}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,13 +202,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9946820547635211}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 92.0: 0.0019358061696015986}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9596602972399151}</t>
+    <t>{90.0: 0.9946590909090909}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 92.0: 0.0019024240564590364}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9603559374041117}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -223,10 +223,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{97.0: 0.9961451975586251}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,22 +244,22 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 1.0, 92.0: 0.03840389659048333}</t>
+    <t>{104.0: 1.0, 92.0: 0.03774163853942927}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544, 86.0: -2.979057665950246e-05, 543.0: -1.4407673141658309e-05}</t>
+    <t>{107.0: 1.0, 86.0: 0.0022358026531524816, 543.0: 0.0011260162595893744}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9325995807127883, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 0.9325995807127883, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -298,7 +298,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -313,13 +313,13 @@
     <t>{165.0: 1.0, 914.0: 0.02521597011440579}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7237212009969225}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621, 81.0: 0.004688835629826501}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.001996976987059545}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.7267679586988522}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905, 81.0: 0.004688878406681026}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.0020136374149495482}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,37 +349,37 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9910835362444057}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.023614895549500452, 410.0: 0.000809452455497035, 850.0: 6.286827434143215e-05, 277.0: 2.4995311222382695e-06}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9763851044504995, 410.0: 0.033467745756127404, 850.0: 0.0025993613429630604, 277.0: 0.00010334599832331306}</t>
+    <t>{178.0: 0.9910361893324433}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.02333808543217699, 410.0: 0.0007931447538327938, 850.0: 6.225564636792795e-05, 277.0: 2.486865226033289e-06}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.976661914567823, 410.0: 0.03319185183630133, 850.0: 0.0026053002055827224, 277.0: 0.00010407137123515327}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0023339836856795435, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0036723380510758886, 593.0: 0.0009507381887469634, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.0023355325289895535, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.003644673256631927, 593.0: 0.000950454102370883, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9216604108666339}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118, 857.0: 0.0052114880479309945}</t>
+    <t>{202.0: 0.9217296702120339}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775, 857.0: 0.005209810781766919}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,22 +388,22 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9932935916542474}</t>
+    <t>{209.0: 0.9932177844762623}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.006413972111570876}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.006422926225029913}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -415,13 +415,13 @@
     <t>{215.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.2727846961866583}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.0070047205725597686}</t>
+    <t>{265.0: 0.20300968880857473}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.006847275974992557}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9751240579785078}</t>
+    <t>{246.0: 0.975143601558792}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
@@ -541,28 +544,28 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{264.0: 0.9882673014793403}</t>
   </si>
   <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{267.0: 0.9917627677100495}</t>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{267.0: 0.9914588315681585}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -577,10 +580,10 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9217862626854386}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 757.0: 0.02934816187828236}</t>
+    <t>{277.0: 0.9215736590859955}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 757.0: 0.03518518518518519}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239}</t>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -604,13 +607,13 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{286.0: 1.0, 909.0: 0.04610555228565823}</t>
+    <t>{286.0: 1.0, 909.0: 0.047051756932625886}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,7 +658,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506, 857.0: 5.4157387671491915e-06}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993, 857.0: 5.418017452439226e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -688,13 +691,13 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,10 +706,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -718,16 +718,16 @@
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 476.0: 0.017720409228709447}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.6807987541759355}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3096939584397832}</t>
+    <t>{402.0: 0.9989634083134653, 476.0: 0.017720338973730234}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6779529275294144}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.31245635026236357}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,13 +736,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.9929952794274403}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.9931527240250074}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,13 +763,13 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647, 212.0: 0.0008100445524503848, 681.0: 5.199815250564148e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309, 212.0: 0.0008067769261799112, 681.0: 5.186052664537677e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -778,13 +778,13 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -832,7 +832,7 @@
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096}</t>
+    <t>{443.0: 0.9625164401578256}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 0.982261273209549}</t>
   </si>
   <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -877,16 +877,16 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0, 492.0: 0.22436055090998525}</t>
   </si>
   <si>
-    <t>{492.0: 0.7693849729763117, 97.0: 0.0038666022232962784, 696.0: 0.0010047874462351652}</t>
+    <t>{492.0: 0.76942079261583, 97.0: 0.0038548024413748794, 696.0: 0.0009761798221415134}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -907,19 +907,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -955,7 +955,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.980110380594447}</t>
+    <t>{543.0: 0.9800564019401017}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7520308837870637, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.7512054233743913, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1066,22 +1066,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9967745561456847, 686.0: 0.009832174944905916}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.8317561741481748e-05}</t>
+    <t>{593.0: 0.9967788758222881, 686.0: 0.009728279100972828}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.8387816720691333e-05}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007421875}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.992578125}</t>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007639726578206675}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9923602734217933}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
   </si>
   <si>
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009234948281437206, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.010772210118615348, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009289641903231521, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.010616724323034713, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.0067064083457526085, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.006782215523737754, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1186,7 +1186,7 @@
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8040555944472704}</t>
+    <t>{634.0: 0.8100037610480787}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1207,13 +1207,13 @@
     <t>{680.0: 0.9970428782651553}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1222,10 +1222,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.990167825055094}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 4.369735659003756e-05}</t>
+    <t>{686.0: 0.9902717208990272}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 4.332111677840183e-05}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1249,16 +1249,16 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 0.9819587628865979, 857.0: 0.032176091558573185}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9960792883677937, 492.0: 0.0062362201922117715}</t>
+    <t>{695.0: 0.9820117474302497, 857.0: 0.03219828902092667}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.996028811858391, 492.0: 0.006200013347264495}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9978908188585608}</t>
+    <t>{698.0: 0.9978753983628069}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
+    <t>{702.0: 0.8093908462413278}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
@@ -1282,10 +1282,10 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24651638430607126}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.24737822594408024}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1303,7 +1303,7 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.00143000143000143, 888.0: 0.010693069306930694}</t>
+    <t>{734.0: 1.0, 73.0: 0.0014347202295552368, 888.0: 0.010686720759944587}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1312,16 +1312,16 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.00025003983200685086}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.00024974086224936775}</t>
   </si>
   <si>
     <t>{741.0: 0.9931837546151662}</t>
@@ -1351,7 +1351,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.001452731906864901}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0014163506815283013}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.4164349706518381, 634.0: 0.0029425639321034596}</t>
+    <t>{757.0: 0.30037037037037034, 634.0: 0.002853381809064126}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1375,10 +1375,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1405,7 +1405,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1414,7 +1414,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 1.0, 757.0: 0.5542168674698795}</t>
+    <t>{773.0: 1.0, 757.0: 0.6644444444444444}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01830002189473766, 184.0: 0.0020208824520040417, 593.0: 0.00123755688186106}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018088971578194488, 184.0: 0.0020373514431239388, 593.0: 0.001237224002436105}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.000507552863013857, 172.0: 8.908181590708252e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 1.0, 168.0: 0.001507017048130357, 930.0: 0.00021291327605272697}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0005017532120282234, 172.0: 8.760480008114152e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 1.0, 168.0: 0.0015194681861348527, 930.0: 0.00021627151653333087}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1453,13 +1453,13 @@
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04411397150712322}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.0012346422691787672}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03853325046612803}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.0012332833854857683}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1474,13 +1474,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{843.0: 1.0, 264.0: 0.011732698520659751}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1513,25 +1513,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 1.0, 922.0: 0.0020671542699406886}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 202.0: 0.07833958913336612, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 1.0, 922.0: 0.002137568399464582}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 202.0: 0.07827032978796614, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1540,7 +1540,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9626070046547287, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 0.9625864821798541, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0, 543.0: 0.018817581800308944}</t>
@@ -1552,13 +1552,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1567,10 +1567,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9892277898813846, 267.0: 0.008237232289950576}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.9893069306930693}</t>
+    <t>{887.0: 0.9893832756769653, 267.0: 0.008541168431841476}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9893132792400554}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1600,7 +1600,7 @@
     <t>{897.0: 1.0}</t>
   </si>
   <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
@@ -1609,10 +1609,10 @@
     <t>{907.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.9538944477143417}</t>
+    <t>{788.0: 0.5280298321939093}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.9529482430673741}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1627,19 +1627,19 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.9479068796325295}</t>
+    <t>{917.0: 0.9475344338134791}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1648,7 +1648,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9318095401424951}</t>
+    <t>{922.0: 0.9329663921970799}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1666,13 +1666,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06612330558756407}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.42347160965860076}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.5763154770653466, 929.0: 0.0017969956479011652}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06489603940345559}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.43224189401836743}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.5675418344650992, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1681,19 +1681,19 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{938.0: 1.0}</t>
@@ -1708,19 +1708,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1729,10 +1729,10 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{991.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.9913802849367914}</t>
+    <t>{992.0: 0.9913944869102509}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994828, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519682, 492.0: 9.25223268524091e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098773, 696.0: 0.0057179007368205565, 492.0: 9.229939229500008e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1783,7 +1783,7 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.900252841273, 246.0: 0.05619714646774235, 681.0: 0.010181063660729604, 741.0: 0.007404409935076077, 789.0: 0.011723649063870455, 90.0: 0.014240889599581854}</t>
+    <t>{46.0: 0.9002528412729995, 246.0: 0.05619714646774235, 681.0: 0.010181063660729604, 741.0: 0.007404409935076077, 789.0: 0.011723649063870458, 90.0: 0.014240889599581849}</t>
   </si>
   <si>
     <t>{48.0: 0.9182990922121357, 443.0: 0.0817009077878643}</t>
@@ -1795,13 +1795,13 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.1147126436781609}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985382678699432, 172.0: 0.0014617321300571377}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491797, 172.0: 0.001462926550820381}</t>
   </si>
   <si>
     <t>{85.0: 0.9759786476868327, 178.0: 0.02402135231316726}</t>
@@ -1813,7 +1813,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9998846584588139, 92.0: 0.00011534154118623192}</t>
+    <t>{91.0: 0.999884658458814, 92.0: 0.00011534154118623196}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1825,13 +1825,13 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{104.0: 0.8253337120136325, 92.0: 0.17466628798636752}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9974495015699063, 86.0: 0.0017320841078430878, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487133}</t>
+    <t>{104.0: 0.8344103392568659, 92.0: 0.16558966074313408}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9974548159024922, 86.0: 0.0017320933362511449, 543.0: 0.0008130907612562255}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1840,19 +1840,19 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9990500316656115, 975.0: 0.0009499683343888536}</t>
-  </si>
-  <si>
-    <t>{165.0: 0.9867533423279773, 914.0: 0.013246657672022568}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.9992304732589455, 893.0: 0.0007695267410542517}</t>
+    <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
+  </si>
+  <si>
+    <t>{165.0: 0.9867533423279775, 914.0: 0.013246657672022568}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.9992208804051421, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1864,28 +1864,28 @@
     <t>{172.0: 0.9946275071633236, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457576, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.959516394944129, 180.0: 0.03944109212925049, 410.0: 0.0010243994567968985, 850.0: 1.6347466178134813e-05, 277.0: 1.766003645521133e-06}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.974248515536554, 410.0: 0.025304057170381308, 850.0: 0.00040380460573048846, 277.0: 4.362268733438853e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9971744383835214, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749618}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676933, 182.0: 0.0037645448323066397}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9835310975016115, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983826}</t>
+    <t>{179.0: 0.9611769872639437, 180.0: 0.03782326252675949, 410.0: 0.000982379733799608, 850.0: 1.5676911351152913e-05, 277.0: 1.6935641459639642e-06}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365538, 410.0: 0.025304057170381304, 850.0: 0.00040380460573048846, 277.0: 4.362268733438853e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9971634886605055, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602095, 182.0: 0.003599476439790576}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.98348801718129, 171.0: 0.011407602914240292, 593.0: 0.0034060103392520736, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1894,10 +1894,10 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.005331753554502371}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{209.0: 1.0}</t>
@@ -1906,7 +1906,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9783393501805052, 681.0: 0.021660649819494584}</t>
+    <t>{212.0: 0.9783393501805056, 681.0: 0.021660649819494584}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1915,25 +1915,25 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.9893097838717171, 409.0: 0.010690216128282594}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410512, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.9891098484848485, 409.0: 0.010890151515151516}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310298, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648751, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628105, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047617}</t>
-  </si>
-  <si>
-    <t>{240.0: 0.23750306546350664, 241.0: 0.7624969345364934}</t>
+    <t>{227.0: 0.9975636241524388, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047623}</t>
+  </si>
+  <si>
+    <t>{240.0: 0.23750306546350655, 241.0: 0.7624969345364934}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1948,7 +1948,7 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
@@ -1957,7 +1957,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083749, 479.0: 0.012356147657862119, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083749, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432056, 203.0: 0.15722996515679444}</t>
@@ -1966,13 +1966,13 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 0.9753822233739311, 757.0: 0.02461777662606893}</t>
-  </si>
-  <si>
-    <t>{282.0: 0.9968165539196179, 182.0: 0.003183446080382013}</t>
-  </si>
-  <si>
-    <t>{286.0: 0.915679942590599, 909.0: 0.08432005740940077}</t>
+    <t>{278.0: 0.975382223373931, 757.0: 0.02461777662606893}</t>
+  </si>
+  <si>
+    <t>{282.0: 0.9967186218211649, 182.0: 0.0032813781788351114}</t>
+  </si>
+  <si>
+    <t>{286.0: 0.9161163662323755, 909.0: 0.08388363376762448}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -1981,22 +1981,22 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.0139225820061175}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9617261904761903, 142.0: 0.03827380952380952}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662857, 426.0: 0.07314326591581212, 204.0: 0.0010707941656292628, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095124}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9617261904761906, 142.0: 0.03827380952380952}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879632, 426.0: 0.07086273685860801, 204.0: 0.001018084182646364, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.4356883607616966}</t>
@@ -2014,10 +2014,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.364744748746899, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.6431948574179481}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2026,19 +2026,19 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864617}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 0.00016093754732365606, 681.0: 3.563192929675043e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.0479628674574523}</t>
+    <t>{419.0: 0.9852607709750568, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 0.00016093754732365614, 681.0: 3.5631929296750426e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047888774459320285}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2047,7 +2047,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594203, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2062,25 +2062,25 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.02211302211302211}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.991730536506656, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.02208588957055215}</t>
   </si>
   <si>
     <t>{491.0: 0.6155305025813929, 492.0: 0.3844694974186071}</t>
   </si>
   <si>
-    <t>{492.0: 0.997457315112772, 97.0: 0.002040642802482782, 696.0: 0.0005020420847452014}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{492.0: 0.9974573007827376, 97.0: 0.002040642802482782, 696.0: 0.0005020564147796415}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.8695187165775398, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2107,28 +2107,28 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.980284775465498, 401.0: 0.019715224534501644}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9881828924643216, 752.0: 0.011817107535678575}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.6131836291198841, 742.0: 0.3868163708801158}</t>
+    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.6131836291198842, 742.0: 0.3868163708801158}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247021, 686.0: 0.005445498075298094}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984781, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9945641986879098, 686.0: 0.005435801312089972}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984778, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 0.9923469387755102, 599.0: 0.007653061224489797}</t>
+    <t>{598.0: 0.9923469387755101, 599.0: 0.007653061224489797}</t>
   </si>
   <si>
     <t>{599.0: 1.0}</t>
@@ -2149,7 +2149,7 @@
     <t>{618.0: 0.9843454790823212, 246.0: 0.0019026021155964614, 789.0: 0.01375191880208235}</t>
   </si>
   <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{619.0: 0.9654101869025538, 887.0: 0.01304608360679127, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -2170,19 +2170,19 @@
     <t>{681.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 0.9892029215624006, 698.0: 0.010797078437599238}</t>
+    <t>{683.0: 0.9892029215624009, 698.0: 0.010797078437599238}</t>
   </si>
   <si>
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
-  </si>
-  <si>
-    <t>{695.0: 0.9125755077488518, 857.0: 0.08742449225114807}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813855, 492.0: 0.01591384021861437}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
+  </si>
+  <si>
+    <t>{695.0: 0.9126765872219321, 857.0: 0.08732341277806772}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2194,25 +2194,25 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.9638009049773756, 73.0: 0.005656108597285069, 888.0: 0.030542986425339362}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851531, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.9645232815964523, 73.0: 0.005543237250554325, 888.0: 0.02993348115299335}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2985884233755502, 246.0: 0.00028798111883190805}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.2985884233755502, 246.0: 0.0002879811188319081}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9917094354520329, 580.0: 0.008290564547966837}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403216, 634.0: 0.0029218407596785976}</t>
+    <t>{752.0: 0.9916798732171156, 580.0: 0.00832012678288431}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.9966315789473683, 634.0: 0.0033684210526315796}</t>
   </si>
   <si>
     <t>{760.0: 0.8011409942950285, 761.0: 0.19885900570497148}</t>
@@ -2221,76 +2221,76 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968028}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470252, 171.0: 0.019290456956868693, 184.0: 0.0006907963904283363, 593.0: 0.001521609805677143}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877676, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968034}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018794097923397875, 184.0: 0.0006730009233437213, 593.0: 0.0014824628064520752}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 0.8357348703170029, 500.0: 0.16426512968299709}</t>
+    <t>{787.0: 0.8360891445003593, 500.0: 0.16391085549964055}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9990364541512768, 246.0: 0.0009635458487233014}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229306}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
+    <t>{789.0: 0.9990364541512764, 246.0: 0.0009635458487233015}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597996, 835.0: 0.007748404740200545}</t>
   </si>
   <si>
     <t>{837.0: 0.8728764921946739, 536.0: 0.127123507805326}</t>
   </si>
   <si>
-    <t>{843.0: 0.9833994947672321, 264.0: 0.016600505232767952}</t>
+    <t>{843.0: 0.983399494767232, 264.0: 0.016600505232767952}</t>
   </si>
   <si>
     <t>{844.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9943369513921663, 707.0: 0.0056630486078338834}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235835}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290922, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.9902136964559436, 91.0: 0.0011742869956431177, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455601, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9933988485562898, 695.0: 0.006601151443710325}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410212, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{848.0: 0.9943369513921657, 707.0: 0.005663048607833885}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235837}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.9902136964559435, 91.0: 0.0011742869956431177, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9933341551984088, 695.0: 0.006665844801591097}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9969504757257867, 267.0: 0.003049524274213223}</t>
+    <t>{887.0: 0.9969948311095084, 267.0: 0.0030051688904916456}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2308,31 +2308,31 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955247, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.7838997073884361, 930.0: 0.21610029261156383}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.994699357719541, 929.0: 0.005300642280459245}</t>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142134, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.7847310040259703, 930.0: 0.21526899597402946}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9945263287545626, 929.0: 0.005473671245437726}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8733408699141656, 702.0: 0.00550829940027856, 249.0: 0.12115083068555589}</t>
+    <t>{933.0: 0.8738662178227145, 702.0: 0.005485663639816162, 249.0: 0.12064811853746933}</t>
   </si>
   <si>
     <t>{934.0: 0.9748517200474494, 5.0: 0.025148279952550416}</t>
@@ -2341,19 +2341,19 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965654, 171.0: 0.0032933285286552176, 593.0: 0.003619054350606514, 85.0: 0.005089058524173028}</t>
+    <t>{937.0: 0.9880009426222853, 171.0: 0.0032933364754076174, 593.0: 0.0036166623781342024, 85.0: 0.005089058524173028}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172718, 634.0: 0.08685562738272833}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{943.0: 0.9149350649350652, 634.0: 0.08506493506493507}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.993087557603687, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911521}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.04623115577889446}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4444,29 +4444,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>641</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4477,29 +4477,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>642</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4521,29 +4521,29 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>643</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4631,106 +4631,106 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>644</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>646</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>647</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>647</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>648</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>648</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4763,40 +4763,40 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>649</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>650</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4818,29 +4818,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>651</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>651</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4862,51 +4862,51 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>652</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>653</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>653</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4983,40 +4983,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>654</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>655</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5049,29 +5049,29 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>656</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>656</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -5082,29 +5082,29 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>657</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>657</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5115,29 +5115,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>658</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>658</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5170,51 +5170,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>659</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>659</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>660</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>660</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
